--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>121.3799366805233</v>
+        <v>166.724815291782</v>
       </c>
       <c r="R2">
-        <v>121.3799366805233</v>
+        <v>1500.523337626038</v>
       </c>
       <c r="S2">
-        <v>0.0006271249193363747</v>
+        <v>0.0007603837906141869</v>
       </c>
       <c r="T2">
-        <v>0.0006271249193363747</v>
+        <v>0.0007603837906141869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>10770.68197203885</v>
+        <v>13634.58024360515</v>
       </c>
       <c r="R3">
-        <v>10770.68197203885</v>
+        <v>122711.2221924464</v>
       </c>
       <c r="S3">
-        <v>0.05564810171792131</v>
+        <v>0.06218338758343678</v>
       </c>
       <c r="T3">
-        <v>0.05564810171792131</v>
+        <v>0.06218338758343678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>9196.246198387622</v>
+        <v>12659.35513061645</v>
       </c>
       <c r="R4">
-        <v>9196.246198387622</v>
+        <v>113934.1961755481</v>
       </c>
       <c r="S4">
-        <v>0.04751357854585771</v>
+        <v>0.05773566714770721</v>
       </c>
       <c r="T4">
-        <v>0.04751357854585771</v>
+        <v>0.05773566714770721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>9445.748682504453</v>
+        <v>11982.78782794215</v>
       </c>
       <c r="R5">
-        <v>9445.748682504453</v>
+        <v>107845.0904514794</v>
       </c>
       <c r="S5">
-        <v>0.04880266494271279</v>
+        <v>0.05465003883669204</v>
       </c>
       <c r="T5">
-        <v>0.04880266494271279</v>
+        <v>0.05465003883669203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H6">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J6">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>3982.578104619722</v>
+        <v>5108.025013571052</v>
       </c>
       <c r="R6">
-        <v>3982.578104619722</v>
+        <v>45972.22512213947</v>
       </c>
       <c r="S6">
-        <v>0.02057649757376432</v>
+        <v>0.02329622867222146</v>
       </c>
       <c r="T6">
-        <v>0.02057649757376432</v>
+        <v>0.02329622867222146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H7">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J7">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>1639.749714205139</v>
+        <v>2192.688122878958</v>
       </c>
       <c r="R7">
-        <v>1639.749714205139</v>
+        <v>19734.19310591062</v>
       </c>
       <c r="S7">
-        <v>0.008471975973750424</v>
+        <v>0.01000021804547526</v>
       </c>
       <c r="T7">
-        <v>0.008471975973750424</v>
+        <v>0.01000021804547526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>139.1619162509573</v>
+        <v>153.6605423709661</v>
       </c>
       <c r="R8">
-        <v>139.1619162509573</v>
+        <v>1382.944881338694</v>
       </c>
       <c r="S8">
-        <v>0.0007189977840677242</v>
+        <v>0.0007008014102243016</v>
       </c>
       <c r="T8">
-        <v>0.0007189977840677242</v>
+        <v>0.0007008014102243016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>12348.57080625809</v>
+        <v>12566.19772867186</v>
       </c>
       <c r="R9">
-        <v>12348.57080625809</v>
+        <v>113095.7795580467</v>
       </c>
       <c r="S9">
-        <v>0.06380046556768999</v>
+        <v>0.05731080310877916</v>
       </c>
       <c r="T9">
-        <v>0.06380046556768999</v>
+        <v>0.05731080310877915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J10">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>10543.48254153073</v>
+        <v>11667.38959664079</v>
       </c>
       <c r="R10">
-        <v>10543.48254153073</v>
+        <v>105006.5063697671</v>
       </c>
       <c r="S10">
-        <v>0.05447424689127318</v>
+        <v>0.05321159848064649</v>
       </c>
       <c r="T10">
-        <v>0.05447424689127318</v>
+        <v>0.0532115984806465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J11">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>10829.53676720115</v>
+        <v>11043.83695693655</v>
       </c>
       <c r="R11">
-        <v>10829.53676720115</v>
+        <v>99394.53261242891</v>
       </c>
       <c r="S11">
-        <v>0.05595218252137291</v>
+        <v>0.05036775475530774</v>
       </c>
       <c r="T11">
-        <v>0.05595218252137291</v>
+        <v>0.05036775475530773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H12">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J12">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>4566.019853155163</v>
+        <v>4707.768862458457</v>
       </c>
       <c r="R12">
-        <v>4566.019853155163</v>
+        <v>42369.91976212612</v>
       </c>
       <c r="S12">
-        <v>0.02359092375896494</v>
+        <v>0.02147077582126461</v>
       </c>
       <c r="T12">
-        <v>0.02359092375896494</v>
+        <v>0.0214707758212646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H13">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J13">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>1879.970600094755</v>
+        <v>2020.872811418635</v>
       </c>
       <c r="R13">
-        <v>1879.970600094755</v>
+        <v>18187.85530276772</v>
       </c>
       <c r="S13">
-        <v>0.009713107809919942</v>
+        <v>0.009216617970194822</v>
       </c>
       <c r="T13">
-        <v>0.009713107809919942</v>
+        <v>0.009216617970194822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H14">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J14">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>122.0494272633438</v>
+        <v>155.67508881846</v>
       </c>
       <c r="R14">
-        <v>122.0494272633438</v>
+        <v>1401.07579936614</v>
       </c>
       <c r="S14">
-        <v>0.0006305839277955142</v>
+        <v>0.0007099891754734816</v>
       </c>
       <c r="T14">
-        <v>0.0006305839277955142</v>
+        <v>0.0007099891754734815</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H15">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J15">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>10830.0894025256</v>
+        <v>12730.94522078787</v>
       </c>
       <c r="R15">
-        <v>10830.0894025256</v>
+        <v>114578.5069870908</v>
       </c>
       <c r="S15">
-        <v>0.0559550377822401</v>
+        <v>0.0580621688987494</v>
       </c>
       <c r="T15">
-        <v>0.0559550377822401</v>
+        <v>0.05806216889874939</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H16">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J16">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>9246.969574882074</v>
+        <v>11820.35338227352</v>
       </c>
       <c r="R16">
-        <v>9246.969574882074</v>
+        <v>106383.1804404617</v>
       </c>
       <c r="S16">
-        <v>0.04777564733797017</v>
+        <v>0.05390922218436782</v>
       </c>
       <c r="T16">
-        <v>0.04777564733797017</v>
+        <v>0.05390922218436782</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H17">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J17">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>9497.848230119724</v>
+        <v>11188.62573722464</v>
       </c>
       <c r="R17">
-        <v>9497.848230119724</v>
+        <v>100697.6316350218</v>
       </c>
       <c r="S17">
-        <v>0.04907184389838883</v>
+        <v>0.05102809461774026</v>
       </c>
       <c r="T17">
-        <v>0.04907184389838883</v>
+        <v>0.05102809461774026</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H18">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J18">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>4004.544655347192</v>
+        <v>4769.489450523232</v>
       </c>
       <c r="R18">
-        <v>4004.544655347192</v>
+        <v>42925.4050547091</v>
       </c>
       <c r="S18">
-        <v>0.02068999055892975</v>
+        <v>0.02175226562006568</v>
       </c>
       <c r="T18">
-        <v>0.02068999055892975</v>
+        <v>0.02175226562006568</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>76.0350445338493</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H19">
-        <v>76.0350445338493</v>
+        <v>267.01638</v>
       </c>
       <c r="I19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J19">
-        <v>0.1826418080265384</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>1648.794017752045</v>
+        <v>2047.367200155413</v>
       </c>
       <c r="R19">
-        <v>1648.794017752045</v>
+        <v>18426.30480139872</v>
       </c>
       <c r="S19">
-        <v>0.008518704521214044</v>
+        <v>0.009337451234891622</v>
       </c>
       <c r="T19">
-        <v>0.008518704521214044</v>
+        <v>0.009337451234891622</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H20">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J20">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>108.5765449030794</v>
+        <v>119.124886725198</v>
       </c>
       <c r="R20">
-        <v>108.5765449030794</v>
+        <v>1072.123980526782</v>
       </c>
       <c r="S20">
-        <v>0.0005609745632293765</v>
+        <v>0.0005432942466666897</v>
       </c>
       <c r="T20">
-        <v>0.0005609745632293765</v>
+        <v>0.0005432942466666897</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H21">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J21">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>9634.569491100367</v>
+        <v>9741.908091021562</v>
       </c>
       <c r="R21">
-        <v>9634.569491100367</v>
+        <v>87677.17281919406</v>
       </c>
       <c r="S21">
-        <v>0.04977823172580819</v>
+        <v>0.04443003274048982</v>
       </c>
       <c r="T21">
-        <v>0.04977823172580819</v>
+        <v>0.04443003274048981</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H22">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J22">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>8226.208264773517</v>
+        <v>9045.109711529976</v>
       </c>
       <c r="R22">
-        <v>8226.208264773517</v>
+        <v>81405.9874037698</v>
       </c>
       <c r="S22">
-        <v>0.04250175387773212</v>
+        <v>0.04125213632378435</v>
       </c>
       <c r="T22">
-        <v>0.04250175387773212</v>
+        <v>0.04125213632378436</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H23">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J23">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>8449.392741640095</v>
+        <v>8561.702348612833</v>
       </c>
       <c r="R23">
-        <v>8449.392741640095</v>
+        <v>77055.32113751549</v>
       </c>
       <c r="S23">
-        <v>0.04365486493446694</v>
+        <v>0.03904745478083312</v>
       </c>
       <c r="T23">
-        <v>0.04365486493446694</v>
+        <v>0.03904745478083312</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H24">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J24">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>3562.488020935421</v>
+        <v>3649.68406212487</v>
       </c>
       <c r="R24">
-        <v>3562.488020935421</v>
+        <v>32847.15655912383</v>
       </c>
       <c r="S24">
-        <v>0.01840604859307375</v>
+        <v>0.01664515625251067</v>
       </c>
       <c r="T24">
-        <v>0.01840604859307375</v>
+        <v>0.01664515625251067</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.6416318548069</v>
+        <v>68.108298</v>
       </c>
       <c r="H25">
-        <v>67.6416318548069</v>
+        <v>204.324894</v>
       </c>
       <c r="I25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J25">
-        <v>0.1624802091662824</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>1466.785725410368</v>
+        <v>1566.675745326304</v>
       </c>
       <c r="R25">
-        <v>1466.785725410368</v>
+        <v>14100.08170793674</v>
       </c>
       <c r="S25">
-        <v>0.007578335471971983</v>
+        <v>0.007145156165323641</v>
       </c>
       <c r="T25">
-        <v>0.007578335471971983</v>
+        <v>0.007145156165323642</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H26">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J26">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>114.484062993415</v>
+        <v>126.882635109819</v>
       </c>
       <c r="R26">
-        <v>114.484062993415</v>
+        <v>1141.943715988371</v>
       </c>
       <c r="S26">
-        <v>0.000591496508677667</v>
+        <v>0.000578675099319042</v>
       </c>
       <c r="T26">
-        <v>0.000591496508677667</v>
+        <v>0.000578675099319042</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H27">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J27">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>10158.77472909239</v>
+        <v>10376.32860409696</v>
       </c>
       <c r="R27">
-        <v>10158.77472909239</v>
+        <v>93386.95743687262</v>
       </c>
       <c r="S27">
-        <v>0.05248660492637029</v>
+        <v>0.04732344170142597</v>
       </c>
       <c r="T27">
-        <v>0.05248660492637029</v>
+        <v>0.04732344170142597</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H28">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J28">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>8673.786276971245</v>
+        <v>9634.152750162293</v>
       </c>
       <c r="R28">
-        <v>8673.786276971245</v>
+        <v>86707.37475146065</v>
       </c>
       <c r="S28">
-        <v>0.04481422274591924</v>
+        <v>0.04393859171296131</v>
       </c>
       <c r="T28">
-        <v>0.04481422274591924</v>
+        <v>0.04393859171296131</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H29">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J29">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>8909.113950471574</v>
+        <v>9119.264537257563</v>
       </c>
       <c r="R29">
-        <v>8909.113950471574</v>
+        <v>82073.38083531806</v>
       </c>
       <c r="S29">
-        <v>0.04603007317637339</v>
+        <v>0.04159033509389783</v>
       </c>
       <c r="T29">
-        <v>0.04603007317637339</v>
+        <v>0.04159033509389782</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H30">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J30">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>3756.318672381053</v>
+        <v>3887.36177511729</v>
       </c>
       <c r="R30">
-        <v>3756.318672381053</v>
+        <v>34986.25597605561</v>
       </c>
       <c r="S30">
-        <v>0.01940749936802924</v>
+        <v>0.01772913574310661</v>
       </c>
       <c r="T30">
-        <v>0.01940749936802924</v>
+        <v>0.0177291357431066</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.3219309856992</v>
+        <v>72.54370233333333</v>
       </c>
       <c r="H31">
-        <v>71.3219309856992</v>
+        <v>217.631107</v>
       </c>
       <c r="I31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="J31">
-        <v>0.1713205602368394</v>
+        <v>0.1587706482245977</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>1546.591757323086</v>
+        <v>1668.702085637267</v>
       </c>
       <c r="R31">
-        <v>1546.591757323086</v>
+        <v>15018.31877073541</v>
       </c>
       <c r="S31">
-        <v>0.007990663511469549</v>
+        <v>0.007610468873886991</v>
       </c>
       <c r="T31">
-        <v>0.007990663511469549</v>
+        <v>0.007610468873886992</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H32">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J32">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>62.59285051535109</v>
+        <v>77.08878092328301</v>
       </c>
       <c r="R32">
-        <v>62.59285051535109</v>
+        <v>693.799028309547</v>
       </c>
       <c r="S32">
-        <v>0.000323393943051644</v>
+        <v>0.0003515796934588767</v>
       </c>
       <c r="T32">
-        <v>0.000323393943051644</v>
+        <v>0.0003515796934588766</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H33">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J33">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>5554.193757726617</v>
+        <v>6304.239519118594</v>
       </c>
       <c r="R33">
-        <v>5554.193757726617</v>
+        <v>56738.15567206734</v>
       </c>
       <c r="S33">
-        <v>0.02869645023345784</v>
+        <v>0.02875181798281133</v>
       </c>
       <c r="T33">
-        <v>0.02869645023345784</v>
+        <v>0.02875181798281132</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H34">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J34">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>4742.293325733843</v>
+        <v>5853.323349533995</v>
       </c>
       <c r="R34">
-        <v>4742.293325733843</v>
+        <v>52679.91014580596</v>
       </c>
       <c r="S34">
-        <v>0.0245016631306867</v>
+        <v>0.02669531940053419</v>
       </c>
       <c r="T34">
-        <v>0.0245016631306867</v>
+        <v>0.02669531940053419</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H35">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J35">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>4870.956036546078</v>
+        <v>5540.498000263472</v>
       </c>
       <c r="R35">
-        <v>4870.956036546078</v>
+        <v>49864.48200237125</v>
       </c>
       <c r="S35">
-        <v>0.02516641543116034</v>
+        <v>0.02526861321728103</v>
       </c>
       <c r="T35">
-        <v>0.02516641543116034</v>
+        <v>0.02526861321728102</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H36">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J36">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>2053.724221526738</v>
+        <v>2361.804513219562</v>
       </c>
       <c r="R36">
-        <v>2053.724221526738</v>
+        <v>21256.24061897605</v>
       </c>
       <c r="S36">
-        <v>0.01061082804940018</v>
+        <v>0.01077150912003502</v>
       </c>
       <c r="T36">
-        <v>0.01061082804940018</v>
+        <v>0.01077150912003502</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>38.9944490781292</v>
+        <v>44.074633</v>
       </c>
       <c r="H37">
-        <v>38.9944490781292</v>
+        <v>132.223899</v>
       </c>
       <c r="I37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194166</v>
       </c>
       <c r="J37">
-        <v>0.09366755456370807</v>
+        <v>0.09646265391194163</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>845.5813337090088</v>
+        <v>1013.836206937051</v>
       </c>
       <c r="R37">
-        <v>845.5813337090088</v>
+        <v>9124.525862433455</v>
       </c>
       <c r="S37">
-        <v>0.004368803775951353</v>
+        <v>0.004623814497821202</v>
       </c>
       <c r="T37">
-        <v>0.004368803775951353</v>
+        <v>0.004623814497821202</v>
       </c>
     </row>
   </sheetData>
